--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>labelle</t>
   </si>
@@ -32,61 +32,46 @@
     <t>description</t>
   </si>
   <si>
-    <t>Mercedes-Benz E-Class</t>
+    <t>Renault Megane 2023</t>
   </si>
   <si>
     <t>disponible</t>
   </si>
   <si>
-    <t>Luxury sedan with advanced technology features and comfortable interior.</t>
-  </si>
-  <si>
-    <t>Toyota Camry</t>
-  </si>
-  <si>
-    <t>Reliable midsize sedan known for its fuel efficiency and spacious cabin.</t>
-  </si>
-  <si>
-    <t>BMW X5</t>
-  </si>
-  <si>
-    <t>Premium SUV with powerful engine options and luxurious amenities.</t>
-  </si>
-  <si>
-    <t>Chalet Pittoresque</t>
-  </si>
-  <si>
-    <t>Chalet confortable avec des vues panoramiques et un grand jardin</t>
-  </si>
-  <si>
-    <t>bmw Économe en Carburant</t>
-  </si>
-  <si>
-    <t>Citadine compacte avec une excellente économie de carburant</t>
-  </si>
-  <si>
-    <t>korsi</t>
-  </si>
-  <si>
-    <t>oppa</t>
-  </si>
-  <si>
-    <t>Volkswagen Golf</t>
-  </si>
-  <si>
-    <t>Versatile hatchback with a spacious interior and responsive performance.</t>
-  </si>
-  <si>
-    <t>Ford Mustang</t>
-  </si>
-  <si>
-    <t>Iconic muscle car with powerful engine options and classic styling.</t>
-  </si>
-  <si>
-    <t>Honda Civic</t>
-  </si>
-  <si>
-    <t>Compact car with sporty design and agile handling.</t>
+    <t>Renault Megane 2023, essence, boîte automatique, 5 places</t>
+  </si>
+  <si>
+    <t>Audi A4</t>
+  </si>
+  <si>
+    <t>Audi A4 2023, essence, boîte automatique, 5 places</t>
+  </si>
+  <si>
+    <t>BMW Serie 3</t>
+  </si>
+  <si>
+    <t>BMW Serie 3 2022, diesel, boîte manuelle, 5 portes</t>
+  </si>
+  <si>
+    <t>Villa Moderne</t>
+  </si>
+  <si>
+    <t>Villa moderne, 4 chambres, 2 salles de bains, jardin spacieux</t>
+  </si>
+  <si>
+    <t>Appartement Rénové</t>
+  </si>
+  <si>
+    <t>Appartement de 3 pièces, rénové, avec balcon</t>
+  </si>
+  <si>
+    <t>Terrain Constructible</t>
+  </si>
+  <si>
+    <t>Terrain constructible de 500 m², proche du centre-ville</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -426,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>100000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -473,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>70000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -490,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>150000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -507,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>200000.0</v>
+        <v>350000.0</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -524,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>100000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -541,13 +526,13 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>200000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -555,70 +540,19 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>200000.0</v>
+        <v>55.0</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9">
-        <v>60000.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>80000.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>50000.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>labelle</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Terrain constructible de 500 m², proche du centre-ville</t>
-  </si>
-  <si>
-    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>40000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -536,23 +533,6 @@
       </c>
       <c r="E7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>55.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
